--- a/data/trans_orig/Q20A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q20A-Provincia-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>0.1091491495506327</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.03661006773758881</v>
+        <v>0.03661006773758882</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.04845367510793857</v>
@@ -681,7 +681,7 @@
         <v>0.1948166669170907</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.07520180867281122</v>
+        <v>0.07520180867281123</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.04927518751100313</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02388968926669181</v>
+        <v>0.02347667622225113</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.09035408783691309</v>
+        <v>0.08971647833465395</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04630722503028829</v>
+        <v>0.04618900869025992</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02074421559462753</v>
+        <v>0.02168313787163313</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02455980371336233</v>
+        <v>0.02400061635514975</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1530567222480524</v>
+        <v>0.1522654083154586</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1274042095582645</v>
+        <v>0.128927549371889</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05224459410587161</v>
+        <v>0.05403860319093948</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03104472945189047</v>
+        <v>0.03061567209620038</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1498527872646892</v>
+        <v>0.14212289011607</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1042205814840985</v>
+        <v>0.1022702521887985</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04190033173390471</v>
+        <v>0.04240685339195402</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09065332483468187</v>
+        <v>0.0919299982420614</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8011625069980798</v>
+        <v>0.6989139885259991</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3663221403969319</v>
+        <v>0.3377997545836349</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05855303115675465</v>
+        <v>0.05894770343265594</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.09145421205349419</v>
+        <v>0.08676143946673771</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3817131357557684</v>
+        <v>0.393921082701081</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3124021608343209</v>
+        <v>0.3444228794770162</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1020492694762954</v>
+        <v>0.103142038004594</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.07670538028256749</v>
+        <v>0.07404173514326061</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.5063179224731612</v>
+        <v>0.5109331642840126</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2824412139618148</v>
+        <v>0.2599892296221057</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.07285706521101071</v>
+        <v>0.07289090486359856</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04615507631049603</v>
+        <v>0.04918961802211627</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.07374757843218235</v>
+        <v>0.071450254950168</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03479950795897926</v>
+        <v>0.03401435536013752</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.07126002186448499</v>
+        <v>0.06816824265870548</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0758820858837394</v>
+        <v>0.07912565018078221</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.09853559048829048</v>
+        <v>0.1014192783479354</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.05333823696838368</v>
+        <v>0.05245426051922863</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03766904444290455</v>
+        <v>0.03720952247590626</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06947602166104273</v>
+        <v>0.07081507138583956</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.09623405327853159</v>
+        <v>0.09596783801058618</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04943247250519428</v>
+        <v>0.04993945542804942</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05992673295307607</v>
+        <v>0.05845153108899329</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.140158403293161</v>
+        <v>0.1441063092620485</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1439603439280578</v>
+        <v>0.1493386362122144</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.08926263929778376</v>
+        <v>0.0898896791755301</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1465116149083465</v>
+        <v>0.1420216869668525</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1332488144852941</v>
+        <v>0.1368199615746386</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1894485512100292</v>
+        <v>0.1915919656933877</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1122238763357827</v>
+        <v>0.112465330803985</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.08635151156907095</v>
+        <v>0.08917670908965791</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1215404890024401</v>
+        <v>0.1230069387333348</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1516818166914354</v>
+        <v>0.1533396656135589</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.08922752558465125</v>
+        <v>0.09041034382914394</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1020887651596517</v>
+        <v>0.1045360568102213</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01241098801756668</v>
+        <v>0.01476269204844156</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05675278058638755</v>
+        <v>0.05437406546943546</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01750517881050246</v>
+        <v>0.01769872090957259</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.06183183889356007</v>
+        <v>0.06446743616251729</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02988331159835889</v>
+        <v>0.02675455217917146</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.08302484526446934</v>
+        <v>0.08496051043601527</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.07451161375410596</v>
+        <v>0.07297406570967643</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.08520471701652559</v>
+        <v>0.08407200570286955</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02830919958589733</v>
+        <v>0.02936484188758582</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.07923963988148842</v>
+        <v>0.07774501749695548</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.05286456150579985</v>
+        <v>0.05187045198964789</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.08161646700148782</v>
+        <v>0.08074243663572409</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1328354302039296</v>
+        <v>0.1222250852728454</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.133437542857661</v>
+        <v>0.1356940480914836</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06683291360787247</v>
+        <v>0.07105474273021874</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1255773054038961</v>
+        <v>0.122400377612266</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07667891516062059</v>
+        <v>0.07544088166388981</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.181611372770802</v>
+        <v>0.1777793130207616</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1424273329570616</v>
+        <v>0.1416431103492173</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.16297616385677</v>
+        <v>0.1585961340459764</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.08530344709013918</v>
+        <v>0.08536470191472705</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1421705931920304</v>
+        <v>0.1391029352888551</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.09616605315225714</v>
+        <v>0.09392691856748725</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1316482065806345</v>
+        <v>0.1314226459059865</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>0.09357194082624125</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.09658193161224923</v>
+        <v>0.09658193161224925</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.07720455381012482</v>
@@ -1101,7 +1101,7 @@
         <v>0.09687806524065076</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1274720496126223</v>
+        <v>0.1274720496126222</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01796219684638987</v>
+        <v>0.01689280344123335</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04285838832995022</v>
+        <v>0.04496523446355325</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06406026785813874</v>
+        <v>0.06784343428211542</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.06054009598577932</v>
+        <v>0.05952072721235332</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05612773586417366</v>
+        <v>0.05410203392002058</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0796386526142968</v>
+        <v>0.08091910858482956</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06250570715287083</v>
+        <v>0.06378874010040679</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.06652250071293399</v>
+        <v>0.0668491765873505</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04460111777777194</v>
+        <v>0.04312708279696437</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.07141209649017713</v>
+        <v>0.06975836022488587</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.07308814915063849</v>
+        <v>0.07047917799247563</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.07556149264351511</v>
+        <v>0.07555409604274305</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2001815271345908</v>
+        <v>0.1817721006121364</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1208824377694268</v>
+        <v>0.1257238558028241</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1514291016427534</v>
+        <v>0.1489426578984306</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4760275386233384</v>
+        <v>0.5231616548505774</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2118003056264168</v>
+        <v>0.1945552892854539</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1603558952001065</v>
+        <v>0.166653772133097</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1400330648527563</v>
+        <v>0.1381697795443138</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1370150264485038</v>
+        <v>0.1402649478447658</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1417767498115323</v>
+        <v>0.1401395733380658</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1275570936146389</v>
+        <v>0.1255162644289958</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1299996051142752</v>
+        <v>0.126628372690931</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2882686698919077</v>
+        <v>0.2756811748824409</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>0.06078360417300925</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.03952094492369304</v>
+        <v>0.03952094492369303</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.1105742120896207</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05086839243622198</v>
+        <v>0.05037852465864213</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03877376964097158</v>
+        <v>0.03891336953733168</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02660994568109081</v>
+        <v>0.02713636056384162</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01167676593771674</v>
+        <v>0.01111433776321437</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.07299153161108729</v>
+        <v>0.07242471103256734</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.06993054422793162</v>
+        <v>0.07169340308119235</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02864645210130033</v>
+        <v>0.02964059411334627</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02461120559327982</v>
+        <v>0.0256581280256217</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.07356208041296135</v>
+        <v>0.07242013946490825</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.06507504938179065</v>
+        <v>0.06409409396292423</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.03536110254032208</v>
+        <v>0.03823515903223626</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02200397227731335</v>
+        <v>0.02272951258968272</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1865306443785057</v>
+        <v>0.1919633165695858</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1199910409399076</v>
+        <v>0.1207373257932128</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1123863074351477</v>
+        <v>0.1213085393768286</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0557236247066074</v>
+        <v>0.05248696834440253</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2041035336395883</v>
+        <v>0.208456859208342</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1643972032322339</v>
+        <v>0.1666201303258417</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1084781719186919</v>
+        <v>0.106384138129865</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.06136482343488142</v>
+        <v>0.05773542290984003</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1688950904307195</v>
+        <v>0.1635012333301185</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1291645225027832</v>
+        <v>0.1289316001740798</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.09562785449695811</v>
+        <v>0.09887166274898958</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.04643857325816342</v>
+        <v>0.04836409218789881</v>
       </c>
     </row>
     <row r="19">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02400163178013707</v>
+        <v>0.0243808078703005</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.0449656407884776</v>
+        <v>0.05173205245307308</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.05152381920764935</v>
+        <v>0.04940329015409248</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.07577316382681036</v>
+        <v>0.07887011362136016</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1010724709347119</v>
+        <v>0.1034281517670786</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.08144684058909551</v>
+        <v>0.07924327665633012</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.08541792375699089</v>
+        <v>0.08238990034118246</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.07939019216197486</v>
+        <v>0.07808729598812447</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.06963216481887383</v>
+        <v>0.07007496562913025</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.07461714323631308</v>
+        <v>0.07132573358306604</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.08029303580196333</v>
+        <v>0.07970717226203575</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.08803281347544836</v>
+        <v>0.08938456974625154</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.0848311128495704</v>
+        <v>0.08131195611060806</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1708430749582485</v>
+        <v>0.1787296044219587</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1350364210892949</v>
+        <v>0.1294956300945564</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1465507852427939</v>
+        <v>0.1511175210233228</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2209797587064436</v>
+        <v>0.2266245152097116</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1825775041194569</v>
+        <v>0.1739599356903209</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2001858099092463</v>
+        <v>0.1936715625738937</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1887045104343442</v>
+        <v>0.185728489818297</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1390373352374962</v>
+        <v>0.1383997136358043</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.153606292296155</v>
+        <v>0.1467933015028844</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1475682690164065</v>
+        <v>0.1466858365652787</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1509791159596267</v>
+        <v>0.1511769541071667</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.04786678311728278</v>
+        <v>0.05029668359634373</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03582019860780744</v>
+        <v>0.03646749357116576</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.03234734319389307</v>
+        <v>0.03341218920512996</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.06750574627595939</v>
+        <v>0.06552829413652615</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.08298977733264189</v>
+        <v>0.08145736711344893</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.06978038285676207</v>
+        <v>0.06969001699345569</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.06244126709804568</v>
+        <v>0.06087602987455145</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.08813154415389879</v>
+        <v>0.08777976241334881</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.07377477658668165</v>
+        <v>0.07173804052412677</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.0588559991706449</v>
+        <v>0.05730496642760792</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.05366797329587783</v>
+        <v>0.05270534499132071</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.0853353025962809</v>
+        <v>0.0874255902038963</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1004953652998937</v>
+        <v>0.1016173040438882</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.08541465460947741</v>
+        <v>0.08384844410303541</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.08244347531825548</v>
+        <v>0.08256250663233676</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2794802144589567</v>
+        <v>0.2900475861704854</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1872395111097198</v>
+        <v>0.1838642878872822</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.130798729350965</v>
+        <v>0.1300674834500437</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1233890156099841</v>
+        <v>0.1212258172822793</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1578771118209205</v>
+        <v>0.1529562643879907</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.12341770356994</v>
+        <v>0.1264598549160282</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.0976458573687593</v>
+        <v>0.09534112637285976</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.09039696856919525</v>
+        <v>0.09284912285356653</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.179891582619946</v>
+        <v>0.1891832247304842</v>
       </c>
     </row>
     <row r="25">
@@ -1633,7 +1633,7 @@
         <v>0.07064253500586833</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.04306992993675359</v>
+        <v>0.04306992993675358</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.0804221932106475</v>
@@ -1645,7 +1645,7 @@
         <v>0.06322342164098958</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.04242294836760143</v>
+        <v>0.04242294836760142</v>
       </c>
     </row>
     <row r="26">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.03496070849028324</v>
+        <v>0.03588593568743272</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.04696928336602762</v>
+        <v>0.04746163243722113</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.03777697802393152</v>
+        <v>0.03837225100125848</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.02783357737294528</v>
+        <v>0.0270207821250775</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.06783884731215213</v>
+        <v>0.06776858939072494</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.06575152775090512</v>
+        <v>0.06623350669942307</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.04980495308592951</v>
+        <v>0.05176767705460743</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.02908351701778393</v>
+        <v>0.02963947894526278</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.05742967459280302</v>
+        <v>0.05807915154585699</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.06145297098503057</v>
+        <v>0.06375077232788429</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.0512913066444588</v>
+        <v>0.05004404646174725</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.03275154797272347</v>
+        <v>0.03229890558194628</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.09560283259215631</v>
+        <v>0.09395923097875054</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1081564041411586</v>
+        <v>0.1143429002080509</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.07886655453086251</v>
+        <v>0.08084905664627275</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.06344196710917623</v>
+        <v>0.05984268562183829</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1686705901528328</v>
+        <v>0.168391639685127</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1148283819262548</v>
+        <v>0.1176098268097968</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.09714597240163143</v>
+        <v>0.09864661482965111</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.05880861943001166</v>
+        <v>0.06118957104797231</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1146382813537811</v>
+        <v>0.114572816468292</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1029674216002617</v>
+        <v>0.1029199802126945</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.08333120585507438</v>
+        <v>0.08124598229985107</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.05582600671560516</v>
+        <v>0.05331866023068708</v>
       </c>
     </row>
     <row r="28">
@@ -1769,7 +1769,7 @@
         <v>0.09426175557270114</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.0802027686981151</v>
+        <v>0.08020276869811506</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.08139527743033152</v>
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.05004257641567882</v>
+        <v>0.04995329917484501</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.07390535997694017</v>
+        <v>0.07380649813567272</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.05439663523615849</v>
+        <v>0.05426904038419948</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.06668770331580398</v>
+        <v>0.06656668487166199</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.0854882449517194</v>
+        <v>0.0847645760028522</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.1041091586807252</v>
+        <v>0.1043750483939484</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.08182818516285628</v>
+        <v>0.08322553829434071</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.07073271454786051</v>
+        <v>0.07027311832726192</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.07162933994345258</v>
+        <v>0.07159027289372102</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.09416166157226261</v>
+        <v>0.09371458663525221</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.07140168204576712</v>
+        <v>0.0711163610758596</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.0730646222025937</v>
+        <v>0.07265862479696615</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.07949197704829494</v>
+        <v>0.07862779879145429</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1325946907467298</v>
+        <v>0.1291914086678558</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.08123457080411106</v>
+        <v>0.08407809928559029</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1261569880031893</v>
+        <v>0.1247962138411775</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.1221863009491729</v>
+        <v>0.1209374141333079</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1365788836192268</v>
+        <v>0.1367135712971451</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.1088355349392404</v>
+        <v>0.1110334512127907</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.09143593208752568</v>
+        <v>0.09161534528308479</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.09450486455822488</v>
+        <v>0.09461017077948199</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.1271276955030947</v>
+        <v>0.1258066720968513</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.09160206684278475</v>
+        <v>0.09073533210958651</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.1042822245324694</v>
+        <v>0.1045643911013589</v>
       </c>
     </row>
     <row r="31">
